--- a/record.xlsx
+++ b/record.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>王鑫</t>
+          <t>王若竹</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,27 +608,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>王骋</t>
+          <t>王鑫</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>田苗</t>
+          <t>王骋</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>秦维斌</t>
+          <t>田苗</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,17 +638,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>臧浩民</t>
+          <t>秦维斌</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>蔡禹煊</t>
+          <t>臧浩民</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>袁桦斌</t>
+          <t>蔡禹煊</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>谢志宏</t>
+          <t>袁桦斌</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>谢牧航</t>
+          <t>谢志宏</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,37 +688,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>谭怡萱</t>
+          <t>谢牧航</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>赵佳一</t>
+          <t>谭怡萱</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>赵瑞霖</t>
+          <t>赵佳一</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>陈杰祥</t>
+          <t>赵瑞霖</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>陈育堃</t>
+          <t>陈杰祥</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>顾明礼</t>
+          <t>陈育堃</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,20 +748,30 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>马骐荣</t>
+          <t>顾明礼</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>马骐荣</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>黄嘉宇</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B34" t="n">
         <v>3</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>1月19日</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1月22日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +459,7 @@
       <c r="B2" t="n">
         <v>2</v>
       </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -464,6 +470,9 @@
       <c r="B3" t="n">
         <v>3</v>
       </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -474,305 +483,464 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>安澍</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
+          <t>卢安来</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>尹昱钦</t>
+          <t>安澍</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>张智成</t>
+          <t>尹昱钦</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>张颢龄</t>
+          <t>张智成</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>曾巍</t>
+          <t>张颢龄</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>李乐扬</t>
+          <t>曾巍</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>李天阳</t>
+          <t>李乐扬</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>李永琰</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
+          <t>李博识</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>杨树灿</t>
+          <t>李天阳</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>梁浩然</t>
+          <t>李永琰</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>3</v>
       </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>王宸宇</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
+          <t>李泽林</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>王智炜</t>
+          <t>杨树灿</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2</v>
       </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>王若竹</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
+          <t>杨毅霖</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>王鑫</t>
+          <t>梁浩然</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>王骋</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
+          <t>王冀恒</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>田苗</t>
+          <t>王宸宇</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>秦维斌</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
+          <t>王昰妍</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>臧浩民</t>
+          <t>王智炜</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>蔡禹煊</t>
+          <t>王若竹</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>袁桦斌</t>
+          <t>王鑫</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>谢志宏</t>
+          <t>王骋</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>3</v>
       </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>谢牧航</t>
+          <t>田苗</t>
         </is>
       </c>
       <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>谭怡萱</t>
+          <t>秦维斌</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>赵佳一</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2</v>
+          <t>管庆涵</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>赵瑞霖</t>
+          <t>臧浩民</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>陈杰祥</t>
+          <t>蔡禹煊</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>陈育堃</t>
+          <t>袁桦斌</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>顾明礼</t>
+          <t>谢志宏</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>马骐荣</t>
+          <t>谢牧航</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>谭怡萱</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>赵佳一</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>赵瑞霖</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>钱文韬</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>陈杰祥</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>陈育堃</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>顾明礼</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>马骐荣</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>黄嘉宇</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>3</v>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,71 +696,73 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>王若竹</t>
+          <t>王鑫</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>王鑫</t>
+          <t>王骋</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>王骋</t>
+          <t>田苗</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>田苗</t>
+          <t>秦维斌</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>秦维斌</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2</v>
-      </c>
+          <t>管庆涵</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>管庆涵</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>臧浩民</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
@@ -768,20 +770,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>臧浩民</t>
+          <t>蔡禹煊</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>蔡禹煊</t>
+          <t>袁桦斌</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -794,152 +796,139 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>袁桦斌</t>
+          <t>谢志宏</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>谢志宏</t>
+          <t>谢牧航</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>谢牧航</t>
+          <t>谭怡萱</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>谭怡萱</t>
+          <t>赵佳一</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>赵佳一</t>
+          <t>赵瑞霖</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>赵瑞霖</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>3</v>
-      </c>
+          <t>钱文韬</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>钱文韬</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>陈杰祥</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>陈杰祥</t>
+          <t>陈育堃</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>陈育堃</t>
+          <t>顾明礼</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>顾明礼</t>
+          <t>马骐荣</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
-      </c>
-      <c r="C40" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>马骐荣</t>
+          <t>黄嘉宇</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>黄嘉宇</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>3</v>
-      </c>
-      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="n">
         <v>4</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -456,10 +456,10 @@
           <t>sunchaser</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
           <t>区庆亮</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -491,10 +491,10 @@
           <t>卢安来</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -541,10 +541,10 @@
           <t>张颢龄</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -552,10 +552,10 @@
           <t>曾巍</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -563,10 +563,10 @@
           <t>李乐扬</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -574,10 +574,10 @@
           <t>李博识</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -598,10 +598,10 @@
           <t>李永琰</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -609,10 +609,10 @@
           <t>李泽林</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -620,10 +620,10 @@
           <t>杨树灿</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -631,10 +631,10 @@
           <t>杨毅霖</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -655,10 +655,10 @@
           <t>王冀恒</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -666,10 +666,10 @@
           <t>王宸宇</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -677,10 +677,10 @@
           <t>王昰妍</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
+      <c r="B21" t="n">
         <v>5</v>
       </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -688,10 +688,10 @@
           <t>王智炜</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -712,10 +712,10 @@
           <t>王骋</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -749,10 +749,10 @@
           <t>管庆涵</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -864,10 +864,10 @@
           <t>钱文韬</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
-        <v>3</v>
-      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -914,10 +914,10 @@
           <t>马骐荣</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -453,34 +453,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sunchaser</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
+          <t>L1L1l1l1l1ll1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>刘益铭</t>
+          <t>sunchaser</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>区庆亮</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>刘益铭</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
@@ -488,7 +488,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>卢安来</t>
+          <t>区庆亮</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -499,49 +499,49 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>安澍</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
+          <t>卢安来</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>尹昱钦</t>
+          <t>安澍</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>张智成</t>
+          <t>尹昱钦</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>张颢龄</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>张智成</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
@@ -549,24 +549,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>曾巍</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
+          <t>张颢龄</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>李乐扬</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
+          <t>曾巍</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -574,10 +574,10 @@
           <t>李博识</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -598,10 +598,10 @@
           <t>李永琰</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -609,10 +609,10 @@
           <t>李泽林</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -620,10 +620,10 @@
           <t>杨树灿</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -631,10 +631,10 @@
           <t>杨毅霖</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -655,10 +655,10 @@
           <t>王冀恒</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -666,10 +666,10 @@
           <t>王宸宇</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -677,10 +677,10 @@
           <t>王昰妍</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
         <v>5</v>
       </c>
-      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -688,10 +688,10 @@
           <t>王智炜</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>2</v>
-      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -712,10 +712,10 @@
           <t>王骋</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
-        <v>3</v>
-      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -749,10 +749,10 @@
           <t>管庆涵</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" t="n">
         <v>5</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -864,10 +864,10 @@
           <t>钱文韬</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>3</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -914,10 +914,10 @@
           <t>马骐荣</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
-        <v>2</v>
-      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -464,70 +464,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sunchaser</t>
+          <t>刘益铭</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>刘益铭</t>
+          <t>区庆亮</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>区庆亮</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>卢安来</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>卢安来</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>安澍</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>安澍</t>
+          <t>尹昱钦</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>尹昱钦</t>
+          <t>张智成</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
@@ -536,11 +538,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>张智成</t>
+          <t>张智成 李乐杨 赵瑞霖</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
@@ -595,67 +597,67 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>李永琰</t>
+          <t>李子俊</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>李泽林</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
+          <t>李永琰</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>杨树灿</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>李泽林</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>杨毅霖</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
+          <t>杨树灿</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>梁浩然</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
+          <t>杨毅霖</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>王冀恒</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>梁浩然</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
@@ -663,106 +665,104 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>王宸宇</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>王冀恒</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>王昰妍</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
+          <t>王宸宇</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>王智炜</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>王昰妍</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>王鑫</t>
+          <t>王智炜</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>王骋</t>
+          <t>王鑫</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>田苗</t>
+          <t>王骋</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>秦维斌</t>
+          <t>田苗</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>管庆涵</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>秦维斌,李泽林,安澍</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>臧浩民</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>3</v>
-      </c>
+          <t>管庆涵</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
         <v>1</v>
       </c>
@@ -770,20 +770,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>蔡禹煊</t>
+          <t>臧浩民</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>袁桦斌</t>
+          <t>蔡禹煊</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -796,66 +796,66 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>谢志宏</t>
+          <t>袁桦斌</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>谢牧航</t>
+          <t>谢志宏</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>谭怡萱</t>
+          <t>谢牧航</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>赵佳一</t>
+          <t>谭怡萱</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>赵瑞霖</t>
+          <t>赵佳一</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">

--- a/record.xlsx
+++ b/record.xlsx
@@ -562,7 +562,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>曾巍</t>
+          <t>曾巍 蔡禹煊 田苗</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -687,7 +687,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>王昰妍</t>
+          <t>王昰妍，梁浩然，李鹏烁</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -848,7 +848,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>赵佳一</t>
+          <t>赵佳一 李天阳 黄嘉宇</t>
         </is>
       </c>
       <c r="B35" t="n">

--- a/record.xlsx
+++ b/record.xlsx
@@ -597,7 +597,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>李子俊</t>
+          <t>李子俊 王德华 田艺彬</t>
         </is>
       </c>
       <c r="B14" t="n">

--- a/record.xlsx
+++ b/record.xlsx
@@ -456,10 +456,10 @@
           <t>L1L1l1l1l1ll1</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
           <t>区庆亮</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -491,10 +491,10 @@
           <t>卢安来</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -554,10 +554,10 @@
           <t>张颢龄</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -565,10 +565,10 @@
           <t>曾巍 蔡禹煊 田苗</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,10 +576,10 @@
           <t>李博识</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -600,10 +600,10 @@
           <t>李子俊 王德华 田艺彬</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -611,10 +611,10 @@
           <t>李永琰</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -622,10 +622,10 @@
           <t>李泽林</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -633,10 +633,10 @@
           <t>杨树灿</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -644,10 +644,10 @@
           <t>杨毅霖</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -668,10 +668,10 @@
           <t>王冀恒</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -679,10 +679,10 @@
           <t>王宸宇</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -690,10 +690,10 @@
           <t>王昰妍，梁浩然，李鹏烁</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
+      <c r="B22" t="n">
         <v>5</v>
       </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -701,10 +701,10 @@
           <t>王智炜</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -725,10 +725,10 @@
           <t>王骋</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -762,10 +762,10 @@
           <t>管庆涵</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -864,10 +864,10 @@
           <t>钱文韬</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
-        <v>3</v>
-      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -914,10 +914,10 @@
           <t>马骐荣</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -456,10 +456,10 @@
           <t>L1L1l1l1l1ll1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
           <t>区庆亮</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -491,10 +491,10 @@
           <t>卢安来</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -554,10 +554,10 @@
           <t>张颢龄</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -565,10 +565,10 @@
           <t>曾巍 蔡禹煊 田苗</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,10 +576,10 @@
           <t>李博识</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -600,10 +600,10 @@
           <t>李子俊 王德华 田艺彬</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -611,10 +611,10 @@
           <t>李永琰</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -622,10 +622,10 @@
           <t>李泽林</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -633,10 +633,10 @@
           <t>杨树灿</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -644,10 +644,10 @@
           <t>杨毅霖</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -668,10 +668,10 @@
           <t>王冀恒</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -679,10 +679,10 @@
           <t>王宸宇</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -690,10 +690,10 @@
           <t>王昰妍，梁浩然，李鹏烁</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
         <v>5</v>
       </c>
-      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -701,10 +701,10 @@
           <t>王智炜</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -725,10 +725,10 @@
           <t>王骋</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
-        <v>3</v>
-      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -762,10 +762,10 @@
           <t>管庆涵</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="n">
         <v>5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -864,10 +864,10 @@
           <t>钱文韬</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>3</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -914,10 +914,10 @@
           <t>马骐荣</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
-        <v>2</v>
-      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1月19日</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>1月22日</t>
         </is>
       </c>
@@ -456,8 +451,7 @@
           <t>L1L1l1l1l1ll1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
+      <c r="B2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -468,9 +462,6 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -480,455 +471,297 @@
           <t>区庆亮</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+      <c r="B4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>卢安来</t>
+          <t>安澍</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>安澍</t>
+          <t>尹昱钦</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>尹昱钦</t>
+          <t>张智成</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>张智成</t>
+          <t>张智成 李乐杨 赵瑞霖</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>张智成 李乐杨 赵瑞霖</t>
+          <t>张颢龄</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>张颢龄</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>4</v>
+          <t>曾巍 蔡禹煊 田苗</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>曾巍 蔡禹煊 田苗</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
-        <v>3</v>
+          <t>李天阳</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>李博识</t>
+          <t>李子俊 王德华 田艺彬</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>李天阳</t>
+          <t>李永琰</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>李子俊 王德华 田艺彬</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
+          <t>杨树灿</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>李永琰</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
+          <t>梁浩然</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>李泽林</t>
+          <t>王宸宇</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>杨树灿</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
+          <t>王智炜</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>杨毅霖</t>
+          <t>王鑫</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>梁浩然</t>
+          <t>王骋</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>王冀恒</t>
+          <t>田苗</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>王宸宇</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
+          <t>秦维斌,李泽林,安澍</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>王昰妍，梁浩然，李鹏烁</t>
+          <t>臧浩民</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>王智炜</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
-        <v>2</v>
+          <t>蔡禹煊</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>王鑫</t>
+          <t>袁桦斌</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>王骋</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
+          <t>谢志宏</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>田苗</t>
+          <t>谢牧航</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>3</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>秦维斌,李泽林,安澍</t>
+          <t>谭怡萱</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>管庆涵</t>
+          <t>赵佳一 李天阳 黄嘉宇</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>臧浩民</t>
+          <t>陈杰祥</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>蔡禹煊</t>
+          <t>陈育堃</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
-      </c>
-      <c r="C30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>袁桦斌</t>
+          <t>顾明礼</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
-      </c>
-      <c r="C31" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>谢志宏</t>
+          <t>马骐荣</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>谢牧航</t>
+          <t>黄嘉宇</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>谭怡萱</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>赵佳一 李天阳 黄嘉宇</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>钱文韬</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>3</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>陈杰祥</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>陈育堃</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>顾明礼</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>4</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>马骐荣</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>黄嘉宇</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>4</v>
-      </c>
-      <c r="C41" t="n">
         <v>3</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>1月19日</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>1月22日</t>
         </is>
       </c>
@@ -451,7 +456,8 @@
           <t>L1L1l1l1l1ll1</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -462,6 +468,9 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -471,297 +480,455 @@
           <t>区庆亮</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>安澍</t>
+          <t>卢安来</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>尹昱钦</t>
+          <t>安澍</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>张智成</t>
+          <t>尹昱钦</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>张智成 李乐杨 赵瑞霖</t>
+          <t>张智成</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>张颢龄</t>
+          <t>张智成 李乐杨 赵瑞霖</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>曾巍 蔡禹煊 田苗</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
+          <t>张颢龄</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>李天阳</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
+          <t>曾巍 蔡禹煊 田苗</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>李子俊 王德华 田艺彬</t>
+          <t>李博识</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>李永琰</t>
+          <t>李天阳</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>杨树灿</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+          <t>李子俊 王德华 田艺彬</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>梁浩然</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+          <t>李永琰</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>王宸宇</t>
+          <t>李泽林</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>王智炜</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+          <t>杨树灿</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>王鑫</t>
+          <t>杨毅霖</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>王骋</t>
+          <t>梁浩然</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>田苗</t>
+          <t>王冀恒</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>秦维斌,李泽林,安澍</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+          <t>王宸宇</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>臧浩民</t>
+          <t>王昰妍，梁浩然，李鹏烁</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>蔡禹煊</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>3</v>
+          <t>王智炜</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>袁桦斌</t>
+          <t>王鑫</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>谢志宏</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+          <t>王骋</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>谢牧航</t>
+          <t>田苗</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>谭怡萱</t>
+          <t>秦维斌,李泽林,安澍</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>赵佳一 李天阳 黄嘉宇</t>
+          <t>管庆涵</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>陈杰祥</t>
+          <t>臧浩民</t>
         </is>
       </c>
       <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>陈育堃</t>
+          <t>蔡禹煊</t>
         </is>
       </c>
       <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>顾明礼</t>
+          <t>袁桦斌</t>
         </is>
       </c>
       <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>马骐荣</t>
+          <t>谢志宏</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>谢牧航</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>谭怡萱</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>赵佳一 李天阳 黄嘉宇</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>钱文韬</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>陈杰祥</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>陈育堃</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>顾明礼</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>马骐荣</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>黄嘉宇</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" t="n">
         <v>3</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -464,145 +464,145 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>刘益铭</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
+          <t>sunchaser</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>区庆亮</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>刘益铭</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>卢安来</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>区庆亮</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>安澍</t>
+          <t>卢安来</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>尹昱钦</t>
+          <t>安澍</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>张智成</t>
+          <t>尹昱钦</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>张智成 李乐杨 赵瑞霖</t>
+          <t>张智成</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>张颢龄</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>张智成 李乐杨 赵瑞霖</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>曾巍 蔡禹煊 田苗</t>
+          <t>张颢龄</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>李博识</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>曾巍 蔡禹煊 田苗</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>李天阳</t>
+          <t>李博识</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>李子俊 王德华 田艺彬</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>李天阳</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">

--- a/record.xlsx
+++ b/record.xlsx
@@ -456,10 +456,10 @@
           <t>L1L1l1l1l1ll1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -467,10 +467,10 @@
           <t>sunchaser</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,10 @@
           <t>区庆亮</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -502,10 +502,10 @@
           <t>卢安来</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -565,10 +565,10 @@
           <t>张颢龄</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,10 +576,10 @@
           <t>曾巍 蔡禹煊 田苗</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -587,10 +587,10 @@
           <t>李博识</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -611,10 +611,10 @@
           <t>李永琰</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -622,10 +622,10 @@
           <t>李泽林</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -633,10 +633,10 @@
           <t>杨树灿</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -644,10 +644,10 @@
           <t>杨毅霖</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -668,10 +668,10 @@
           <t>王冀恒</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -679,10 +679,10 @@
           <t>王宸宇</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -690,10 +690,10 @@
           <t>王昰妍，梁浩然，李鹏烁</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
         <v>5</v>
       </c>
-      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -701,10 +701,10 @@
           <t>王智炜</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -725,10 +725,10 @@
           <t>王骋</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
-        <v>3</v>
-      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -762,10 +762,10 @@
           <t>管庆涵</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="n">
         <v>5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -864,10 +864,10 @@
           <t>钱文韬</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>3</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -914,10 +914,10 @@
           <t>马骐荣</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
-        <v>2</v>
-      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -456,10 +456,10 @@
           <t>L1L1l1l1l1ll1</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -467,10 +467,10 @@
           <t>sunchaser</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,10 @@
           <t>区庆亮</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -502,10 +502,10 @@
           <t>卢安来</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -565,10 +565,10 @@
           <t>张颢龄</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,10 +576,10 @@
           <t>曾巍 蔡禹煊 田苗</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -587,10 +587,10 @@
           <t>李博识</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -611,10 +611,10 @@
           <t>李永琰</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -622,10 +622,10 @@
           <t>李泽林</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -633,10 +633,10 @@
           <t>杨树灿</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -644,10 +644,10 @@
           <t>杨毅霖</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -668,10 +668,10 @@
           <t>王冀恒</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -679,10 +679,10 @@
           <t>王宸宇</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -690,10 +690,10 @@
           <t>王昰妍，梁浩然，李鹏烁</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
+      <c r="B22" t="n">
         <v>5</v>
       </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -701,10 +701,10 @@
           <t>王智炜</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -725,10 +725,10 @@
           <t>王骋</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -762,10 +762,10 @@
           <t>管庆涵</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -864,10 +864,10 @@
           <t>钱文韬</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
-        <v>3</v>
-      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -914,10 +914,10 @@
           <t>马骐荣</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -464,257 +464,255 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sunchaser</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
+          <t>ak_Automaton</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>刘益铭</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
+          <t>sunchaser</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>区庆亮</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>刘益铭</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>卢安来</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>区庆亮</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>安澍</t>
+          <t>卢安来</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>尹昱钦</t>
+          <t>安澍</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>张智成</t>
+          <t>尹昱钦</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>张智成 李乐杨 赵瑞霖</t>
+          <t>张智成</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>张颢龄</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>张智成 李乐杨 赵瑞霖</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>曾巍 蔡禹煊 田苗</t>
+          <t>张颢龄</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>李博识</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>曾巍 蔡禹煊 田苗</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>李天阳</t>
+          <t>李博识</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>李永琰</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>李天阳</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>李泽林</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>李永琰</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>杨树灿</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
+          <t>李泽林</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>杨毅霖</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>杨树灿</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>梁浩然</t>
+          <t>杨毅霖</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>王冀恒</t>
+          <t>梁浩然</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>王宸宇</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
+          <t>王冀恒</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>王昰妍，梁浩然，李鹏烁</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>王宸宇</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>王智炜</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
+          <t>王昰妍，梁浩然，李鹏烁</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>王鑫</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2</v>
-      </c>
+          <t>王智炜</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
         <v>2</v>
       </c>
@@ -722,35 +720,35 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>王骋</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>王鑫</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>田苗</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>3</v>
-      </c>
+          <t>王骋</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>秦维斌,李泽林,安澍</t>
+          <t>田苗</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -759,13 +757,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>管庆涵</t>
+          <t>秦维斌,李泽林,安澍</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">

--- a/record.xlsx
+++ b/record.xlsx
@@ -848,7 +848,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>赵佳一 李天阳 黄嘉宇</t>
+          <t>赵佳一 李天阳 陈育堃</t>
         </is>
       </c>
       <c r="B35" t="n">

--- a/record.xlsx
+++ b/record.xlsx
@@ -584,7 +584,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>曾巍 蔡禹煊 田苗</t>
+          <t>曾巍 蔡禹煊 蔡佩霖</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>

--- a/record.xlsx
+++ b/record.xlsx
@@ -456,10 +456,10 @@
           <t>L1L1l1l1l1ll1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -467,10 +467,10 @@
           <t>ak_Automaton</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -478,10 +478,10 @@
           <t>sunchaser</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -502,10 +502,10 @@
           <t>区庆亮</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -513,10 +513,10 @@
           <t>卢安来</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
           <t>张颢龄</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
-        <v>4</v>
-      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -587,10 +587,10 @@
           <t>曾巍 蔡禹煊 蔡佩霖</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -598,10 +598,10 @@
           <t>李博识</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -622,10 +622,10 @@
           <t>李永琰</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>3</v>
-      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -633,10 +633,10 @@
           <t>李泽林</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -644,10 +644,10 @@
           <t>杨树灿</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -655,10 +655,10 @@
           <t>杨毅霖</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -679,10 +679,10 @@
           <t>王冀恒</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -690,10 +690,10 @@
           <t>王宸宇</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>2</v>
-      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -701,10 +701,10 @@
           <t>王昰妍，梁浩然，李鹏烁</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
         <v>5</v>
       </c>
-      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -712,10 +712,10 @@
           <t>王智炜</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
-        <v>2</v>
-      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -736,10 +736,10 @@
           <t>王骋</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="n">
-        <v>3</v>
-      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="n">
         <v>5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -864,10 +864,10 @@
           <t>钱文韬</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>3</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -914,10 +914,10 @@
           <t>马骐荣</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
-        <v>2</v>
-      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
